--- a/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>STT</t>
   </si>
@@ -204,6 +204,39 @@
   </si>
   <si>
     <t>&amp;=[DATA1].TONG_TIEN</t>
+  </si>
+  <si>
+    <t>SL BHYT</t>
+  </si>
+  <si>
+    <t>SL viện phí</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SOLUONG_BH</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SOLUONG_VP</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SOLUONG</t>
+  </si>
+  <si>
+    <t>Tiền BHYT</t>
+  </si>
+  <si>
+    <t>Tiền viện phí</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONG_TIEN_BH</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].TONG_TIEN_VP</t>
+  </si>
+  <si>
+    <t>Tổng tiền</t>
   </si>
 </sst>
 </file>
@@ -395,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -430,59 +463,62 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -771,50 +807,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="12" customWidth="1"/>
-    <col min="4" max="14" width="17.140625" style="12" customWidth="1"/>
-    <col min="15" max="17" width="10.85546875" style="12" customWidth="1"/>
-    <col min="18" max="23" width="17.140625" style="12" customWidth="1"/>
-    <col min="24" max="24" width="20.7109375" style="12" customWidth="1"/>
-    <col min="25" max="27" width="14.42578125" style="12" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.42578125" style="12" customWidth="1"/>
+    <col min="4" max="6" width="12.42578125" style="14" customWidth="1"/>
+    <col min="7" max="17" width="17.140625" style="12" customWidth="1"/>
+    <col min="18" max="20" width="10.85546875" style="12" customWidth="1"/>
+    <col min="21" max="26" width="17.140625" style="12" customWidth="1"/>
+    <col min="27" max="28" width="17.140625" style="14" customWidth="1"/>
+    <col min="29" max="29" width="20.7109375" style="12" customWidth="1"/>
+    <col min="30" max="32" width="14.42578125" style="12" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
+      <c r="B1" s="24"/>
     </row>
-    <row r="2" spans="1:27" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
@@ -825,222 +863,264 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
     </row>
-    <row r="3" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="19" t="s">
+    <row r="3" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:32" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="H7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="I7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="J7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="K7" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="L7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="M7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="N7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="O7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="P7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="Q7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="R7" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="13" t="s">
+      <c r="S7" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="Q7" s="13" t="s">
+      <c r="T7" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="U7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="13" t="s">
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="X7" s="25" t="s">
+      <c r="AA7" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="29"/>
+    </row>
+    <row r="8" spans="1:32" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC8" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="Y7" s="20" t="s">
+      <c r="AD8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>1</v>
+      </c>
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15">
+        <v>4</v>
+      </c>
+      <c r="E9" s="15">
+        <v>5</v>
+      </c>
+      <c r="F9" s="15">
+        <v>6</v>
+      </c>
+      <c r="G9" s="15">
+        <v>7</v>
+      </c>
+      <c r="H9" s="15">
+        <v>8</v>
+      </c>
+      <c r="I9" s="15">
+        <v>9</v>
+      </c>
+      <c r="J9" s="15">
+        <v>10</v>
+      </c>
+      <c r="K9" s="15">
+        <v>11</v>
+      </c>
+      <c r="L9" s="15">
+        <v>12</v>
+      </c>
+      <c r="M9" s="15">
+        <v>13</v>
+      </c>
+      <c r="N9" s="15">
+        <v>14</v>
+      </c>
+      <c r="O9" s="15">
+        <v>15</v>
+      </c>
+      <c r="P9" s="15">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="15">
+        <v>17</v>
+      </c>
+      <c r="R9" s="15">
+        <v>18</v>
+      </c>
+      <c r="S9" s="15">
+        <v>19</v>
+      </c>
+      <c r="T9" s="15">
+        <v>20</v>
+      </c>
+      <c r="U9" s="15">
+        <v>21</v>
+      </c>
+      <c r="V9" s="15">
+        <v>22</v>
+      </c>
+      <c r="W9" s="15">
+        <v>23</v>
+      </c>
+      <c r="X9" s="15">
+        <v>24</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="15">
+        <v>26</v>
+      </c>
+      <c r="AA9" s="15">
+        <v>27</v>
+      </c>
+      <c r="AB9" s="15">
+        <v>28</v>
+      </c>
+      <c r="AC9" s="18">
+        <v>29</v>
+      </c>
+      <c r="AD9" s="15">
+        <v>30</v>
+      </c>
+      <c r="AE9" s="15">
         <v>31</v>
       </c>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="22"/>
+      <c r="AF9" s="15">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="T8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="U8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W8" s="14"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>1</v>
-      </c>
-      <c r="B9" s="23">
-        <v>2</v>
-      </c>
-      <c r="C9" s="23">
-        <v>3</v>
-      </c>
-      <c r="D9" s="23">
-        <v>4</v>
-      </c>
-      <c r="E9" s="23">
-        <v>5</v>
-      </c>
-      <c r="F9" s="23">
-        <v>6</v>
-      </c>
-      <c r="G9" s="23">
-        <v>7</v>
-      </c>
-      <c r="H9" s="23">
-        <v>8</v>
-      </c>
-      <c r="I9" s="23">
-        <v>9</v>
-      </c>
-      <c r="J9" s="23">
-        <v>10</v>
-      </c>
-      <c r="K9" s="23">
-        <v>11</v>
-      </c>
-      <c r="L9" s="23">
-        <v>12</v>
-      </c>
-      <c r="M9" s="23">
-        <v>13</v>
-      </c>
-      <c r="N9" s="23">
-        <v>14</v>
-      </c>
-      <c r="O9" s="23">
-        <v>15</v>
-      </c>
-      <c r="P9" s="23">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="23">
-        <v>17</v>
-      </c>
-      <c r="R9" s="23">
-        <v>18</v>
-      </c>
-      <c r="S9" s="23">
-        <v>19</v>
-      </c>
-      <c r="T9" s="23">
-        <v>20</v>
-      </c>
-      <c r="U9" s="23">
-        <v>21</v>
-      </c>
-      <c r="V9" s="23">
-        <v>22</v>
-      </c>
-      <c r="W9" s="23">
-        <v>23</v>
-      </c>
-      <c r="X9" s="27">
-        <v>24</v>
-      </c>
-      <c r="Y9" s="23">
-        <v>25</v>
-      </c>
-      <c r="Z9" s="23">
-        <v>26</v>
-      </c>
-      <c r="AA9" s="23">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1051,216 +1131,254 @@
         <v>35</v>
       </c>
       <c r="D10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="R10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="S10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="T10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="T10" s="11" t="s">
+      <c r="W10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="X10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="Y10" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W10" s="11" t="s">
+      <c r="Z10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="X10" s="29" t="s">
+      <c r="AA10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC10" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="AD10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="AE10" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AA10" s="11" t="s">
+      <c r="AF10" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+    <row r="11" spans="1:32" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="30">
+      <c r="B11" s="32"/>
+      <c r="C11" s="20">
         <f>SUM(C10:C10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="30">
-        <f t="shared" ref="D11:AA11" si="0">SUM(D10:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="30">
+      <c r="D11" s="20">
+        <f t="shared" ref="D11:F11" si="0">SUM(D10:D10)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="30">
-        <f t="shared" si="0"/>
+      <c r="G11" s="20">
+        <f t="shared" ref="G11:AF11" si="1">SUM(G10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="X14" s="12" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC14" s="12" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="E3:M3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="R7:V7"/>
-    <mergeCell ref="W7:W8"/>
-    <mergeCell ref="X7:X8"/>
+  <mergeCells count="28">
+    <mergeCell ref="AA7:AC7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="S7:S8"/>
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="Z7:Z8"/>
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
     <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
   <si>
     <t>STT</t>
   </si>
@@ -107,12 +107,6 @@
     <t>PTTT tại Gây mê hồi tỉnh</t>
   </si>
   <si>
-    <t>Thuốc trong gói</t>
-  </si>
-  <si>
-    <t>Vật tư trong gói</t>
-  </si>
-  <si>
     <t>VTYT thay thế</t>
   </si>
   <si>
@@ -191,12 +185,6 @@
     <t>&amp;=[DATA1].GMHT_MONEY_PTTT</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].GMHT_MONEY_THUOC</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].GMHT_MONEY_VATTU</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].GMHT_MONEY_VTTHAYTHE</t>
   </si>
   <si>
@@ -237,6 +225,39 @@
   </si>
   <si>
     <t>Tổng tiền</t>
+  </si>
+  <si>
+    <t>Doanh thu tại khoa</t>
+  </si>
+  <si>
+    <t>Gây mê_Chi phí thuốc trong gói</t>
+  </si>
+  <si>
+    <t>Gây mê_Chi phí vật tư trong gói</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GMHT_MONEY_HPDKPTTT_THUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GMHT_MONEY_HPDKPTTT_VATTU</t>
+  </si>
+  <si>
+    <t>Thuốc trong gói PTTT</t>
+  </si>
+  <si>
+    <t>Vật tư trong gói PTTT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GMHT_MONEY_DKPTTT_THUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GMHT_MONEY_DKPTTT_VATTU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_DKPTTT_THUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_DKPTTT_VATTU</t>
   </si>
 </sst>
 </file>
@@ -291,7 +312,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +337,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -428,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -460,32 +487,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,32 +550,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -807,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,44 +863,48 @@
     <col min="1" max="1" width="7.42578125" style="5" customWidth="1"/>
     <col min="2" max="2" width="32.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="12" customWidth="1"/>
-    <col min="4" max="6" width="12.42578125" style="14" customWidth="1"/>
+    <col min="4" max="6" width="12.42578125" style="13" customWidth="1"/>
     <col min="7" max="17" width="17.140625" style="12" customWidth="1"/>
-    <col min="18" max="20" width="10.85546875" style="12" customWidth="1"/>
-    <col min="21" max="26" width="17.140625" style="12" customWidth="1"/>
-    <col min="27" max="28" width="17.140625" style="14" customWidth="1"/>
-    <col min="29" max="29" width="20.7109375" style="12" customWidth="1"/>
-    <col min="30" max="32" width="14.42578125" style="12" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="19" width="17.140625" style="20" customWidth="1"/>
+    <col min="20" max="22" width="10.85546875" style="12" customWidth="1"/>
+    <col min="23" max="28" width="17.140625" style="12" customWidth="1"/>
+    <col min="29" max="30" width="17.140625" style="13" customWidth="1"/>
+    <col min="31" max="31" width="20.7109375" style="12" customWidth="1"/>
+    <col min="32" max="32" width="16.7109375" style="12" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" style="20" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" style="20" customWidth="1"/>
+    <col min="35" max="36" width="14.42578125" style="12" customWidth="1"/>
+    <col min="37" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="26"/>
     </row>
-    <row r="2" spans="1:32" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
       <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
@@ -863,264 +912,298 @@
       <c r="X2" s="12"/>
       <c r="Y2" s="12"/>
       <c r="Z2" s="12"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
       <c r="AE2" s="12"/>
       <c r="AF2" s="12"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
     </row>
-    <row r="3" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="23" t="s">
+    <row r="3" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
     </row>
-    <row r="4" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:32" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="25" t="s">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:36" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="R7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="U7" s="30" t="s">
+      <c r="D7" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
       <c r="X7" s="31"/>
       <c r="Y7" s="31"/>
-      <c r="Z7" s="25" t="s">
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AA7" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="29"/>
-      <c r="AD7" s="27" t="s">
+      <c r="AC7" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD7" s="28"/>
+      <c r="AE7" s="29"/>
+      <c r="AF7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG7" s="28"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="29"/>
+    </row>
+    <row r="8" spans="1:36" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG8" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AE7" s="28"/>
-      <c r="AF7" s="29"/>
+      <c r="AJ8" s="8" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="8" t="s">
+    <row r="9" spans="1:36" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14">
+        <v>4</v>
+      </c>
+      <c r="E9" s="14">
+        <v>5</v>
+      </c>
+      <c r="F9" s="14">
+        <v>6</v>
+      </c>
+      <c r="G9" s="14">
+        <v>7</v>
+      </c>
+      <c r="H9" s="14">
+        <v>8</v>
+      </c>
+      <c r="I9" s="14">
+        <v>9</v>
+      </c>
+      <c r="J9" s="14">
+        <v>10</v>
+      </c>
+      <c r="K9" s="14">
+        <v>11</v>
+      </c>
+      <c r="L9" s="14">
+        <v>12</v>
+      </c>
+      <c r="M9" s="14">
+        <v>13</v>
+      </c>
+      <c r="N9" s="14">
+        <v>14</v>
+      </c>
+      <c r="O9" s="14">
         <v>15</v>
       </c>
-      <c r="V8" s="8" t="s">
+      <c r="P9" s="14">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>17</v>
+      </c>
+      <c r="R9" s="14">
+        <v>18</v>
+      </c>
+      <c r="S9" s="14">
+        <v>19</v>
+      </c>
+      <c r="T9" s="14">
+        <v>20</v>
+      </c>
+      <c r="U9" s="14">
+        <v>21</v>
+      </c>
+      <c r="V9" s="14">
+        <v>22</v>
+      </c>
+      <c r="W9" s="14">
+        <v>23</v>
+      </c>
+      <c r="X9" s="14">
+        <v>24</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>25</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>26</v>
+      </c>
+      <c r="AA9" s="14">
         <v>27</v>
       </c>
-      <c r="W8" s="8" t="s">
+      <c r="AB9" s="36">
         <v>28</v>
       </c>
-      <c r="X8" s="8" t="s">
+      <c r="AC9" s="14">
         <v>29</v>
       </c>
-      <c r="Y8" s="9" t="s">
+      <c r="AD9" s="14">
         <v>30</v>
       </c>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB8" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC8" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD8" s="8" t="s">
+      <c r="AE9" s="22">
+        <v>31</v>
+      </c>
+      <c r="AF9" s="14">
         <v>32</v>
       </c>
-      <c r="AE8" s="8" t="s">
+      <c r="AG9" s="14">
         <v>33</v>
       </c>
-      <c r="AF8" s="8" t="s">
+      <c r="AH9" s="14">
         <v>34</v>
       </c>
+      <c r="AI9" s="14">
+        <v>35</v>
+      </c>
+      <c r="AJ9" s="14">
+        <v>36</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" s="16" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>1</v>
-      </c>
-      <c r="B9" s="15">
-        <v>2</v>
-      </c>
-      <c r="C9" s="15">
-        <v>3</v>
-      </c>
-      <c r="D9" s="15">
-        <v>4</v>
-      </c>
-      <c r="E9" s="15">
-        <v>5</v>
-      </c>
-      <c r="F9" s="15">
-        <v>6</v>
-      </c>
-      <c r="G9" s="15">
-        <v>7</v>
-      </c>
-      <c r="H9" s="15">
-        <v>8</v>
-      </c>
-      <c r="I9" s="15">
-        <v>9</v>
-      </c>
-      <c r="J9" s="15">
-        <v>10</v>
-      </c>
-      <c r="K9" s="15">
-        <v>11</v>
-      </c>
-      <c r="L9" s="15">
-        <v>12</v>
-      </c>
-      <c r="M9" s="15">
-        <v>13</v>
-      </c>
-      <c r="N9" s="15">
-        <v>14</v>
-      </c>
-      <c r="O9" s="15">
-        <v>15</v>
-      </c>
-      <c r="P9" s="15">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="15">
-        <v>17</v>
-      </c>
-      <c r="R9" s="15">
-        <v>18</v>
-      </c>
-      <c r="S9" s="15">
-        <v>19</v>
-      </c>
-      <c r="T9" s="15">
-        <v>20</v>
-      </c>
-      <c r="U9" s="15">
-        <v>21</v>
-      </c>
-      <c r="V9" s="15">
-        <v>22</v>
-      </c>
-      <c r="W9" s="15">
-        <v>23</v>
-      </c>
-      <c r="X9" s="15">
-        <v>24</v>
-      </c>
-      <c r="Y9" s="15">
-        <v>25</v>
-      </c>
-      <c r="Z9" s="15">
-        <v>26</v>
-      </c>
-      <c r="AA9" s="15">
-        <v>27</v>
-      </c>
-      <c r="AB9" s="15">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="18">
-        <v>29</v>
-      </c>
-      <c r="AD9" s="15">
-        <v>30</v>
-      </c>
-      <c r="AE9" s="15">
-        <v>31</v>
-      </c>
-      <c r="AF9" s="15">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1128,257 +1211,272 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="R10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="T10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="S10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>55</v>
-      </c>
       <c r="W10" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="X10" s="11" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="Z10" s="11" t="s">
         <v>53</v>
       </c>
       <c r="AA10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC10" s="19" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="AB10" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="AD10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AE10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF10" s="11" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="11" spans="1:32" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32" t="s">
+    <row r="11" spans="1:36" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="20">
+      <c r="B11" s="23"/>
+      <c r="C11" s="18">
         <f>SUM(C10:C10)</f>
         <v>0</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <f t="shared" ref="D11:F11" si="0">SUM(D10:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="20">
-        <f t="shared" ref="G11:AF11" si="1">SUM(G10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="20">
+      <c r="G11" s="18">
+        <f t="shared" ref="G11:AJ11" si="1">SUM(G10:G10)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="18">
+        <f>SUM(R10:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="18">
+        <f t="shared" ref="S11" si="2">SUM(S10:S10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE11" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="18">
+        <f>SUM(AF10:AF10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="18">
+        <f>SUM(AG10:AG10)</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="18">
+        <f t="shared" ref="AH11" si="3">SUM(AH10:AH10)</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="AC14" s="12" t="s">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AE14" s="12" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="AA7:AC7"/>
+  <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="AF7:AJ7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="G7:V7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="S7:S8"/>
-    <mergeCell ref="T7:T8"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="Z7:Z8"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -258,6 +258,24 @@
   </si>
   <si>
     <t>&amp;=[DATA1].MONEY_DKPTTT_VATTU</t>
+  </si>
+  <si>
+    <t>Nước sôi</t>
+  </si>
+  <si>
+    <t>Xuất ăn</t>
+  </si>
+  <si>
+    <t>Điện nước</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_DIENNUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_XUATAN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_NUOCSOI</t>
   </si>
 </sst>
 </file>
@@ -455,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -514,7 +532,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,26 +574,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -852,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ14"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,24 +887,26 @@
     <col min="4" max="6" width="12.42578125" style="13" customWidth="1"/>
     <col min="7" max="17" width="17.140625" style="12" customWidth="1"/>
     <col min="18" max="19" width="17.140625" style="20" customWidth="1"/>
-    <col min="20" max="22" width="10.85546875" style="12" customWidth="1"/>
-    <col min="23" max="28" width="17.140625" style="12" customWidth="1"/>
-    <col min="29" max="30" width="17.140625" style="13" customWidth="1"/>
-    <col min="31" max="31" width="20.7109375" style="12" customWidth="1"/>
-    <col min="32" max="32" width="16.7109375" style="12" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" style="20" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" style="20" customWidth="1"/>
-    <col min="35" max="36" width="14.42578125" style="12" customWidth="1"/>
-    <col min="37" max="16384" width="9.140625" style="1"/>
+    <col min="20" max="21" width="10.85546875" style="12" customWidth="1"/>
+    <col min="22" max="22" width="15.5703125" style="12" customWidth="1"/>
+    <col min="23" max="25" width="14.5703125" style="22" customWidth="1"/>
+    <col min="26" max="31" width="17.140625" style="12" customWidth="1"/>
+    <col min="32" max="33" width="17.140625" style="13" customWidth="1"/>
+    <col min="34" max="34" width="20.7109375" style="12" customWidth="1"/>
+    <col min="35" max="35" width="16.7109375" style="12" customWidth="1"/>
+    <col min="36" max="36" width="16.7109375" style="20" customWidth="1"/>
+    <col min="37" max="37" width="14.42578125" style="20" customWidth="1"/>
+    <col min="38" max="39" width="14.42578125" style="12" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="30"/>
     </row>
-    <row r="2" spans="1:36" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="12"/>
@@ -891,119 +914,125 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
-      <c r="AC2" s="13"/>
-      <c r="AD2" s="13"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
       <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="12"/>
       <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
     </row>
-    <row r="3" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="33" t="s">
+    <row r="3" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
     </row>
-    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:36" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="24" t="s">
+    <row r="4" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:39" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="30" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="34" t="s">
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AC7" s="27" t="s">
+      <c r="AF7" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AD7" s="28"/>
-      <c r="AE7" s="29"/>
-      <c r="AF7" s="27" t="s">
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="28"/>
-      <c r="AI7" s="28"/>
-      <c r="AJ7" s="29"/>
+      <c r="AJ7" s="32"/>
+      <c r="AK7" s="32"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="33"/>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
+    <row r="8" spans="1:39" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="G8" s="21" t="s">
         <v>12</v>
       </c>
@@ -1052,48 +1081,57 @@
       <c r="V8" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="W8" s="8" t="s">
+      <c r="W8" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="8" t="s">
+      <c r="AA8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Y8" s="8" t="s">
+      <c r="AB8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Z8" s="8" t="s">
+      <c r="AC8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AA8" s="9" t="s">
+      <c r="AD8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="21" t="s">
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AD8" s="21" t="s">
+      <c r="AG8" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AE8" s="16" t="s">
+      <c r="AH8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AF8" s="8" t="s">
+      <c r="AI8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="8" t="s">
+      <c r="AJ8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AH8" s="8" t="s">
+      <c r="AK8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AI8" s="8" t="s">
+      <c r="AL8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AJ8" s="8" t="s">
+      <c r="AM8" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:36" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -1175,7 +1213,7 @@
       <c r="AA9" s="14">
         <v>27</v>
       </c>
-      <c r="AB9" s="36">
+      <c r="AB9" s="14">
         <v>28</v>
       </c>
       <c r="AC9" s="14">
@@ -1184,7 +1222,7 @@
       <c r="AD9" s="14">
         <v>30</v>
       </c>
-      <c r="AE9" s="22">
+      <c r="AE9" s="23">
         <v>31</v>
       </c>
       <c r="AF9" s="14">
@@ -1193,7 +1231,7 @@
       <c r="AG9" s="14">
         <v>33</v>
       </c>
-      <c r="AH9" s="14">
+      <c r="AH9" s="26">
         <v>34</v>
       </c>
       <c r="AI9" s="14">
@@ -1202,8 +1240,17 @@
       <c r="AJ9" s="14">
         <v>36</v>
       </c>
+      <c r="AK9" s="14">
+        <v>37</v>
+      </c>
+      <c r="AL9" s="14">
+        <v>38</v>
+      </c>
+      <c r="AM9" s="14">
+        <v>39</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1271,53 +1318,62 @@
         <v>47</v>
       </c>
       <c r="W10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="X10" s="11" t="s">
+      <c r="AA10" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="Y10" s="11" t="s">
+      <c r="AB10" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="Z10" s="11" t="s">
+      <c r="AC10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AA10" s="11" t="s">
+      <c r="AD10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AB10" s="37" t="s">
+      <c r="AE10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="AC10" s="11" t="s">
+      <c r="AF10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AD10" s="11" t="s">
+      <c r="AG10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AE10" s="17" t="s">
+      <c r="AH10" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AI10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AJ10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AH10" s="11" t="s">
+      <c r="AK10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AI10" s="11" t="s">
+      <c r="AL10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AJ10" s="11" t="s">
+      <c r="AM10" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:36" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="18">
         <f>SUM(C10:C10)</f>
         <v>0</v>
@@ -1335,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" ref="G11:AJ11" si="1">SUM(G10:G10)</f>
+        <f t="shared" ref="G11:AM11" si="1">SUM(G10:G10)</f>
         <v>0</v>
       </c>
       <c r="H11" s="18">
@@ -1399,15 +1455,15 @@
         <v>0</v>
       </c>
       <c r="W11" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="W11:X11" si="3">SUM(W10:W10)</f>
         <v>0</v>
       </c>
       <c r="X11" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y11" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(Y10:Y10)</f>
         <v>0</v>
       </c>
       <c r="Z11" s="18">
@@ -1418,7 +1474,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB11" s="38">
+      <c r="AB11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1430,48 +1486,60 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="19">
+      <c r="AE11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AF11" s="18">
-        <f>SUM(AF10:AF10)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AG11" s="18">
-        <f>SUM(AG10:AG10)</f>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="18">
-        <f t="shared" ref="AH11" si="3">SUM(AH10:AH10)</f>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AI11" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(AI10:AI10)</f>
         <v>0</v>
       </c>
       <c r="AJ11" s="18">
+        <f>SUM(AJ10:AJ10)</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="18">
+        <f t="shared" ref="AK11" si="4">SUM(AK10:AK10)</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="AE14" s="12" t="s">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AH14" s="12" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AF7:AJ7"/>
-    <mergeCell ref="W7:AA7"/>
-    <mergeCell ref="AB7:AB8"/>
+    <mergeCell ref="AI7:AM7"/>
+    <mergeCell ref="Z7:AD7"/>
+    <mergeCell ref="AE7:AE8"/>
     <mergeCell ref="H2:P2"/>
     <mergeCell ref="H3:P3"/>
-    <mergeCell ref="G7:V7"/>
-    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:Y7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>

--- a/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HongNhat\Desktop\MedicalLink.git\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\MSO2_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].MONEY_NUOCSOI</t>
+  </si>
+  <si>
+    <t>Máu và chế phẩm</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GMHT_MONEY_MAU</t>
   </si>
 </sst>
 </file>
@@ -473,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -547,7 +553,37 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -556,34 +592,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -873,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AH14" sqref="AH14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,23 +899,25 @@
     <col min="20" max="21" width="10.85546875" style="12" customWidth="1"/>
     <col min="22" max="22" width="15.5703125" style="12" customWidth="1"/>
     <col min="23" max="25" width="14.5703125" style="22" customWidth="1"/>
-    <col min="26" max="31" width="17.140625" style="12" customWidth="1"/>
-    <col min="32" max="33" width="17.140625" style="13" customWidth="1"/>
-    <col min="34" max="34" width="20.7109375" style="12" customWidth="1"/>
-    <col min="35" max="35" width="16.7109375" style="12" customWidth="1"/>
-    <col min="36" max="36" width="16.7109375" style="20" customWidth="1"/>
-    <col min="37" max="37" width="14.42578125" style="20" customWidth="1"/>
-    <col min="38" max="39" width="14.42578125" style="12" customWidth="1"/>
-    <col min="40" max="16384" width="9.140625" style="1"/>
+    <col min="26" max="28" width="17.140625" style="12" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="27" customWidth="1"/>
+    <col min="30" max="32" width="17.140625" style="12" customWidth="1"/>
+    <col min="33" max="34" width="17.140625" style="13" customWidth="1"/>
+    <col min="35" max="35" width="20.7109375" style="12" customWidth="1"/>
+    <col min="36" max="36" width="16.7109375" style="12" customWidth="1"/>
+    <col min="37" max="37" width="16.7109375" style="20" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" style="20" customWidth="1"/>
+    <col min="39" max="40" width="14.42578125" style="12" customWidth="1"/>
+    <col min="41" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="28"/>
     </row>
-    <row r="2" spans="1:39" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="12"/>
@@ -914,17 +925,17 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
@@ -937,102 +948,104 @@
       <c r="Z2" s="12"/>
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
+      <c r="AC2" s="27"/>
       <c r="AD2" s="12"/>
       <c r="AE2" s="12"/>
-      <c r="AF2" s="13"/>
+      <c r="AF2" s="12"/>
       <c r="AG2" s="13"/>
-      <c r="AH2" s="12"/>
+      <c r="AH2" s="13"/>
       <c r="AI2" s="12"/>
-      <c r="AJ2" s="20"/>
+      <c r="AJ2" s="12"/>
       <c r="AK2" s="20"/>
-      <c r="AL2" s="12"/>
+      <c r="AL2" s="20"/>
       <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
     </row>
-    <row r="3" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="39" t="s">
+    <row r="3" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
     </row>
-    <row r="4" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:39" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="28" t="s">
+    <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:40" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="28" t="s">
+      <c r="F7" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="34" t="s">
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="36" t="s">
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="AF7" s="31" t="s">
+      <c r="AG7" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="31" t="s">
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="31"/>
+      <c r="AJ7" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="33"/>
+      <c r="AK7" s="30"/>
+      <c r="AL7" s="30"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="31"/>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
+    <row r="8" spans="1:40" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="21" t="s">
         <v>12</v>
       </c>
@@ -1100,38 +1113,41 @@
         <v>73</v>
       </c>
       <c r="AC8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AD8" s="9" t="s">
+      <c r="AE8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="21" t="s">
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="AG8" s="21" t="s">
+      <c r="AH8" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="AH8" s="16" t="s">
+      <c r="AI8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="AI8" s="8" t="s">
+      <c r="AJ8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AJ8" s="8" t="s">
+      <c r="AK8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AK8" s="8" t="s">
+      <c r="AL8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AL8" s="8" t="s">
+      <c r="AM8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AM8" s="8" t="s">
+      <c r="AN8" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -1222,19 +1238,19 @@
       <c r="AD9" s="14">
         <v>30</v>
       </c>
-      <c r="AE9" s="23">
+      <c r="AE9" s="14">
         <v>31</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="23">
         <v>32</v>
       </c>
       <c r="AG9" s="14">
         <v>33</v>
       </c>
-      <c r="AH9" s="26">
+      <c r="AH9" s="14">
         <v>34</v>
       </c>
-      <c r="AI9" s="14">
+      <c r="AI9" s="26">
         <v>35</v>
       </c>
       <c r="AJ9" s="14">
@@ -1249,8 +1265,11 @@
       <c r="AM9" s="14">
         <v>39</v>
       </c>
+      <c r="AN9" s="14">
+        <v>40</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1336,44 +1355,47 @@
         <v>75</v>
       </c>
       <c r="AC10" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD10" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="AD10" s="11" t="s">
+      <c r="AE10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="AE10" s="24" t="s">
+      <c r="AF10" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AG10" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AG10" s="11" t="s">
+      <c r="AH10" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AH10" s="17" t="s">
+      <c r="AI10" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="AI10" s="11" t="s">
+      <c r="AJ10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AJ10" s="11" t="s">
+      <c r="AK10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AK10" s="11" t="s">
+      <c r="AL10" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AL10" s="11" t="s">
+      <c r="AM10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AM10" s="11" t="s">
+      <c r="AN10" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:40" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="18">
         <f>SUM(C10:C10)</f>
         <v>0</v>
@@ -1391,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" ref="G11:AM11" si="1">SUM(G10:G10)</f>
+        <f t="shared" ref="G11:AN11" si="1">SUM(G10:G10)</f>
         <v>0</v>
       </c>
       <c r="H11" s="18">
@@ -1479,18 +1501,18 @@
         <v>0</v>
       </c>
       <c r="AC11" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AC11" si="4">SUM(AC10:AC10)</f>
         <v>0</v>
       </c>
       <c r="AD11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="18">
+      <c r="AE11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1498,12 +1520,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AH11" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="18">
-        <f>SUM(AI10:AI10)</f>
+      <c r="AH11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="19">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="18">
@@ -1511,40 +1533,44 @@
         <v>0</v>
       </c>
       <c r="AK11" s="18">
-        <f t="shared" ref="AK11" si="4">SUM(AK10:AK10)</f>
+        <f>SUM(AK10:AK10)</f>
         <v>0</v>
       </c>
       <c r="AL11" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AL11" si="5">SUM(AL10:AL10)</f>
         <v>0</v>
       </c>
       <c r="AM11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AN11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="AH14" s="12" t="s">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AI14" s="12" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AI7:AM7"/>
-    <mergeCell ref="Z7:AD7"/>
-    <mergeCell ref="AE7:AE8"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:Y7"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="Z7:AE7"/>
+    <mergeCell ref="AF7:AF8"/>
+    <mergeCell ref="H2:P2"/>
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:Y7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\MSO2_MedicalLink\trunk\MedicalLink\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_MedicalLink\trunk\MedicalLink\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
   <si>
     <t>STT</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Hao phí ngày giường, CK</t>
   </si>
   <si>
-    <t>Hao phí PTTT</t>
-  </si>
-  <si>
     <t>Chi phí khác</t>
   </si>
   <si>
@@ -282,6 +279,27 @@
   </si>
   <si>
     <t>&amp;=[DATA1].GMHT_MONEY_MAU</t>
+  </si>
+  <si>
+    <t>Gây mê_Hao phí PTTT ngoài gói</t>
+  </si>
+  <si>
+    <t>Khoa khác_Chi phí thuốc trong gói</t>
+  </si>
+  <si>
+    <t>Khoa khác_Chi phí vật tư trong gói</t>
+  </si>
+  <si>
+    <t>Khoa khác_Hao phí PTTT ngoài gói</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_HPDKPTTT_THUOC</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_HPDKPTTT_VATTU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GMHT_MONEY_HPPTTT</t>
   </si>
 </sst>
 </file>
@@ -479,7 +497,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -559,6 +577,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -584,15 +614,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -882,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AH14" sqref="AH14"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,20 +925,21 @@
     <col min="30" max="32" width="17.140625" style="12" customWidth="1"/>
     <col min="33" max="34" width="17.140625" style="13" customWidth="1"/>
     <col min="35" max="35" width="20.7109375" style="12" customWidth="1"/>
-    <col min="36" max="36" width="16.7109375" style="12" customWidth="1"/>
-    <col min="37" max="37" width="16.7109375" style="20" customWidth="1"/>
-    <col min="38" max="38" width="14.42578125" style="20" customWidth="1"/>
-    <col min="39" max="40" width="14.42578125" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="9.140625" style="1"/>
+    <col min="36" max="36" width="19" style="12" customWidth="1"/>
+    <col min="37" max="37" width="19" style="20" customWidth="1"/>
+    <col min="38" max="41" width="19" style="28" customWidth="1"/>
+    <col min="42" max="42" width="14.42578125" style="20" customWidth="1"/>
+    <col min="43" max="43" width="14.42578125" style="12" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="32"/>
     </row>
-    <row r="2" spans="1:40" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="3"/>
       <c r="C2" s="12"/>
@@ -925,17 +947,17 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
@@ -957,95 +979,101 @@
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="12"/>
     </row>
-    <row r="3" spans="1:40" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="37" t="s">
+    <row r="3" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
     </row>
-    <row r="4" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:40" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="38" t="s">
+    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="F7" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="32" t="s">
+      <c r="G7" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="34" t="s">
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="29" t="s">
+      <c r="AG7" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH7" s="34"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AK7" s="30"/>
-      <c r="AL7" s="30"/>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="31"/>
+      <c r="AK7" s="34"/>
+      <c r="AL7" s="34"/>
+      <c r="AM7" s="34"/>
+      <c r="AN7" s="34"/>
+      <c r="AO7" s="34"/>
+      <c r="AP7" s="34"/>
+      <c r="AQ7" s="35"/>
     </row>
-    <row r="8" spans="1:40" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="21" t="s">
         <v>12</v>
       </c>
@@ -1080,10 +1108,10 @@
         <v>22</v>
       </c>
       <c r="R8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="S8" s="21" t="s">
-        <v>73</v>
       </c>
       <c r="T8" s="21" t="s">
         <v>23</v>
@@ -1095,25 +1123,25 @@
         <v>25</v>
       </c>
       <c r="W8" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="X8" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="X8" s="21" t="s">
+      <c r="Y8" s="21" t="s">
         <v>79</v>
-      </c>
-      <c r="Y8" s="21" t="s">
-        <v>80</v>
       </c>
       <c r="Z8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="AA8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AB8" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="AC8" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AD8" s="8" t="s">
         <v>27</v>
@@ -1121,33 +1149,42 @@
       <c r="AE8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="AF8" s="35"/>
+      <c r="AF8" s="39"/>
       <c r="AG8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH8" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="AH8" s="21" t="s">
-        <v>63</v>
       </c>
       <c r="AI8" s="16" t="s">
         <v>7</v>
       </c>
       <c r="AJ8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AK8" s="8" t="s">
-        <v>69</v>
-      </c>
       <c r="AL8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AM8" s="8" t="s">
+      <c r="AQ8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AN8" s="8" t="s">
-        <v>32</v>
-      </c>
     </row>
-    <row r="9" spans="1:40" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>1</v>
       </c>
@@ -1268,8 +1305,17 @@
       <c r="AN9" s="14">
         <v>40</v>
       </c>
+      <c r="AO9" s="14">
+        <v>41</v>
+      </c>
+      <c r="AP9" s="14">
+        <v>42</v>
+      </c>
+      <c r="AQ9" s="14">
+        <v>43</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1277,125 +1323,134 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="R10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="T10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="W10" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF10" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK10" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL10" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="AM10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="W10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF10" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI10" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK10" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AL10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM10" s="11" t="s">
+      <c r="AQ10" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AN10" s="11" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="11" spans="1:40" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:43" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="40"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="18">
         <f>SUM(C10:C10)</f>
         <v>0</v>
@@ -1413,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f t="shared" ref="G11:AN11" si="1">SUM(G10:G10)</f>
+        <f t="shared" ref="G11:AQ11" si="1">SUM(G10:G10)</f>
         <v>0</v>
       </c>
       <c r="H11" s="18">
@@ -1537,32 +1592,39 @@
         <v>0</v>
       </c>
       <c r="AL11" s="18">
-        <f t="shared" ref="AL11" si="5">SUM(AL10:AL10)</f>
+        <f>SUM(AL10:AL10)</f>
         <v>0</v>
       </c>
       <c r="AM11" s="18">
-        <f t="shared" si="1"/>
+        <f>SUM(AM10:AM10)</f>
         <v>0</v>
       </c>
       <c r="AN11" s="18">
+        <f>SUM(AN10:AN10)</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="18">
+        <f t="shared" ref="AO11" si="5">SUM(AO10:AO10)</f>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="18">
+        <f t="shared" ref="AP11" si="6">SUM(AP10:AP10)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AI14" s="12" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AJ7:AN7"/>
+    <mergeCell ref="AJ7:AQ7"/>
     <mergeCell ref="Z7:AE7"/>
     <mergeCell ref="AF7:AF8"/>
     <mergeCell ref="H2:P2"/>
@@ -1571,6 +1633,11 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:Y7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,9 +29,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>BỆNH VIỆN HỮU NGHỊ VIỆT TIỆP</t>
-  </si>
-  <si>
     <t>TỔNG CỘNG</t>
   </si>
   <si>
@@ -300,6 +297,9 @@
   </si>
   <si>
     <t>&amp;=[DATA1].GMHT_MONEY_HPPTTT</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -586,34 +613,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -905,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,10 +934,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="32"/>
+      <c r="A1" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:43" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
@@ -947,17 +947,17 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="H2" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
       <c r="Q2" s="12"/>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
@@ -987,201 +987,201 @@
       <c r="AQ2" s="12"/>
     </row>
     <row r="3" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
+      <c r="H3" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="30" t="s">
+      <c r="A7" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="F7" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="34"/>
-      <c r="W7" s="34"/>
-      <c r="X7" s="34"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="AG7" s="33" t="s">
+      <c r="G7" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK7" s="34"/>
-      <c r="AL7" s="34"/>
-      <c r="AM7" s="34"/>
-      <c r="AN7" s="34"/>
-      <c r="AO7" s="34"/>
-      <c r="AP7" s="34"/>
-      <c r="AQ7" s="35"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA7" s="34"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34"/>
+      <c r="AE7" s="34"/>
+      <c r="AF7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG7" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK7" s="31"/>
+      <c r="AL7" s="31"/>
+      <c r="AM7" s="31"/>
+      <c r="AN7" s="31"/>
+      <c r="AO7" s="31"/>
+      <c r="AP7" s="31"/>
+      <c r="AQ7" s="32"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="I8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="J8" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="K8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="L8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="M8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="N8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="O8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="P8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="Q8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="R8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="T8" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="R8" s="21" t="s">
+      <c r="U8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="S8" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="T8" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="V8" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="W8" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="X8" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y8" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA8" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB8" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="AC8" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AE8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF8" s="39"/>
+      <c r="AF8" s="36"/>
       <c r="AG8" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH8" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="AH8" s="21" t="s">
-        <v>62</v>
-      </c>
       <c r="AI8" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AK8" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="AL8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AM8" s="8" t="s">
+      <c r="AN8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AN8" s="8" t="s">
+      <c r="AO8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AO8" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="AP8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AQ8" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="AQ8" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:43" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1317,140 +1317,140 @@
     </row>
     <row r="10" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="H10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="I10" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="L10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="M10" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="N10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="O10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="P10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="Q10" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="11" t="s">
+      <c r="R10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="T10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="R10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="U10" s="11" t="s">
+      <c r="V10" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="11" t="s">
+      <c r="W10" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="X10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB10" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF10" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG10" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI10" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ10" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK10" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL10" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AN10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="W10" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC10" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF10" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH10" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI10" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK10" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="AM10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AO10" s="11" t="s">
+      <c r="AQ10" s="11" t="s">
         <v>48</v>
-      </c>
-      <c r="AP10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ10" s="11" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:43" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="29"/>
+      <c r="A11" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="41"/>
       <c r="C11" s="18">
         <f>SUM(C10:C10)</f>
         <v>0</v>
@@ -1618,11 +1618,16 @@
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AI14" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="AJ7:AQ7"/>
     <mergeCell ref="Z7:AE7"/>
@@ -1633,11 +1638,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:Y7"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
   <si>
     <t>STT</t>
   </si>
@@ -300,6 +300,27 @@
   </si>
   <si>
     <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>Vật tư thanh toán riêng</t>
+  </si>
+  <si>
+    <t>PTTT yêu cầu</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GMHT_MONEY_PTTTYEUCAU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].GMHT_MONEY_VATTU_TTRIENG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_VATTU_TTRIENG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MONEY_PTTTYEUCAU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
   </si>
 </sst>
 </file>
@@ -532,12 +553,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -559,18 +574,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -580,6 +589,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -607,14 +631,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -903,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ14"/>
+  <dimension ref="A1:AU13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,731 +936,663 @@
     <col min="2" max="2" width="32.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" style="12" customWidth="1"/>
     <col min="4" max="6" width="12.42578125" style="13" customWidth="1"/>
-    <col min="7" max="17" width="17.140625" style="12" customWidth="1"/>
-    <col min="18" max="19" width="17.140625" style="20" customWidth="1"/>
-    <col min="20" max="21" width="10.85546875" style="12" customWidth="1"/>
-    <col min="22" max="22" width="15.5703125" style="12" customWidth="1"/>
-    <col min="23" max="25" width="14.5703125" style="22" customWidth="1"/>
-    <col min="26" max="28" width="17.140625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" style="27" customWidth="1"/>
-    <col min="30" max="32" width="17.140625" style="12" customWidth="1"/>
-    <col min="33" max="34" width="17.140625" style="13" customWidth="1"/>
-    <col min="35" max="35" width="20.7109375" style="12" customWidth="1"/>
-    <col min="36" max="36" width="19" style="12" customWidth="1"/>
-    <col min="37" max="37" width="19" style="20" customWidth="1"/>
-    <col min="38" max="41" width="19" style="28" customWidth="1"/>
-    <col min="42" max="42" width="14.42578125" style="20" customWidth="1"/>
-    <col min="43" max="43" width="14.42578125" style="12" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="10" width="17.140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" style="25" customWidth="1"/>
+    <col min="12" max="17" width="17.140625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="17.140625" style="25" customWidth="1"/>
+    <col min="19" max="19" width="17.140625" style="12" customWidth="1"/>
+    <col min="20" max="21" width="17.140625" style="18" customWidth="1"/>
+    <col min="22" max="23" width="10.85546875" style="12" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="12" customWidth="1"/>
+    <col min="25" max="27" width="14.5703125" style="20" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" style="12" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="25" customWidth="1"/>
+    <col min="30" max="30" width="17.140625" style="12" customWidth="1"/>
+    <col min="31" max="31" width="17.140625" style="25" customWidth="1"/>
+    <col min="32" max="32" width="17.140625" style="12" customWidth="1"/>
+    <col min="33" max="33" width="17.140625" style="23" customWidth="1"/>
+    <col min="34" max="36" width="17.140625" style="12" customWidth="1"/>
+    <col min="37" max="38" width="17.140625" style="13" customWidth="1"/>
+    <col min="39" max="39" width="20.7109375" style="12" customWidth="1"/>
+    <col min="40" max="40" width="19" style="12" customWidth="1"/>
+    <col min="41" max="41" width="19" style="18" customWidth="1"/>
+    <col min="42" max="45" width="19" style="24" customWidth="1"/>
+    <col min="46" max="46" width="14.42578125" style="18" customWidth="1"/>
+    <col min="47" max="47" width="14.42578125" style="12" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+    </row>
+    <row r="2" spans="1:47" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:43" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="37" t="s">
+      <c r="H2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
       <c r="AB2" s="12"/>
-      <c r="AC2" s="27"/>
+      <c r="AC2" s="25"/>
       <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
+      <c r="AE2" s="25"/>
       <c r="AF2" s="12"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="12"/>
       <c r="AI2" s="12"/>
       <c r="AJ2" s="12"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="12"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="12"/>
     </row>
-    <row r="3" spans="1:43" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="38" t="s">
+    <row r="3" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="27"/>
     </row>
-    <row r="4" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="39" t="s">
+    <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:47" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
       <c r="Y7" s="32"/>
-      <c r="Z7" s="33" t="s">
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="35" t="s">
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="35"/>
+      <c r="AG7" s="35"/>
+      <c r="AH7" s="35"/>
+      <c r="AI7" s="35"/>
+      <c r="AJ7" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="AG7" s="30" t="s">
+      <c r="AK7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="30" t="s">
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
+      <c r="AO7" s="32"/>
+      <c r="AP7" s="32"/>
       <c r="AQ7" s="32"/>
+      <c r="AR7" s="32"/>
+      <c r="AS7" s="32"/>
+      <c r="AT7" s="32"/>
+      <c r="AU7" s="33"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="21" t="s">
+    <row r="8" spans="1:47" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="21" t="s">
+      <c r="H8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="21" t="s">
+      <c r="J8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="21" t="s">
+      <c r="M8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="21" t="s">
+      <c r="N8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="21" t="s">
+      <c r="O8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="P8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="21" t="s">
+      <c r="Q8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="21" t="s">
+      <c r="R8" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="21" t="s">
+      <c r="T8" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="S8" s="21" t="s">
+      <c r="U8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="T8" s="21" t="s">
+      <c r="V8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="21" t="s">
+      <c r="W8" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="21" t="s">
+      <c r="X8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="21" t="s">
+      <c r="Y8" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="X8" s="21" t="s">
+      <c r="Z8" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="Y8" s="21" t="s">
+      <c r="AA8" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="Z8" s="8" t="s">
+      <c r="AB8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="8" t="s">
+      <c r="AC8" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AB8" s="8" t="s">
+      <c r="AE8" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AC8" s="8" t="s">
+      <c r="AG8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="AD8" s="8" t="s">
+      <c r="AH8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AE8" s="9" t="s">
+      <c r="AI8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AF8" s="36"/>
-      <c r="AG8" s="21" t="s">
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="AH8" s="21" t="s">
+      <c r="AL8" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="AI8" s="16" t="s">
+      <c r="AM8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="AJ8" s="8" t="s">
+      <c r="AN8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AK8" s="8" t="s">
+      <c r="AO8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AL8" s="8" t="s">
+      <c r="AP8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="AM8" s="8" t="s">
+      <c r="AQ8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="AN8" s="8" t="s">
+      <c r="AR8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="AO8" s="8" t="s">
+      <c r="AS8" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="AP8" s="8" t="s">
+      <c r="AT8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AQ8" s="8" t="s">
+      <c r="AU8" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:43" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+    <row r="9" spans="1:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ9" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM9" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO9" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AU9" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="14">
-        <v>2</v>
-      </c>
-      <c r="C9" s="14">
-        <v>3</v>
-      </c>
-      <c r="D9" s="14">
-        <v>4</v>
-      </c>
-      <c r="E9" s="14">
-        <v>5</v>
-      </c>
-      <c r="F9" s="14">
-        <v>6</v>
-      </c>
-      <c r="G9" s="14">
-        <v>7</v>
-      </c>
-      <c r="H9" s="14">
-        <v>8</v>
-      </c>
-      <c r="I9" s="14">
-        <v>9</v>
-      </c>
-      <c r="J9" s="14">
-        <v>10</v>
-      </c>
-      <c r="K9" s="14">
-        <v>11</v>
-      </c>
-      <c r="L9" s="14">
-        <v>12</v>
-      </c>
-      <c r="M9" s="14">
-        <v>13</v>
-      </c>
-      <c r="N9" s="14">
-        <v>14</v>
-      </c>
-      <c r="O9" s="14">
-        <v>15</v>
-      </c>
-      <c r="P9" s="14">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="14">
-        <v>17</v>
-      </c>
-      <c r="R9" s="14">
-        <v>18</v>
-      </c>
-      <c r="S9" s="14">
-        <v>19</v>
-      </c>
-      <c r="T9" s="14">
-        <v>20</v>
-      </c>
-      <c r="U9" s="14">
-        <v>21</v>
-      </c>
-      <c r="V9" s="14">
-        <v>22</v>
-      </c>
-      <c r="W9" s="14">
-        <v>23</v>
-      </c>
-      <c r="X9" s="14">
-        <v>24</v>
-      </c>
-      <c r="Y9" s="14">
-        <v>25</v>
-      </c>
-      <c r="Z9" s="14">
-        <v>26</v>
-      </c>
-      <c r="AA9" s="14">
-        <v>27</v>
-      </c>
-      <c r="AB9" s="14">
-        <v>28</v>
-      </c>
-      <c r="AC9" s="14">
-        <v>29</v>
-      </c>
-      <c r="AD9" s="14">
-        <v>30</v>
-      </c>
-      <c r="AE9" s="14">
-        <v>31</v>
-      </c>
-      <c r="AF9" s="23">
-        <v>32</v>
-      </c>
-      <c r="AG9" s="14">
-        <v>33</v>
-      </c>
-      <c r="AH9" s="14">
-        <v>34</v>
-      </c>
-      <c r="AI9" s="26">
-        <v>35</v>
-      </c>
-      <c r="AJ9" s="14">
-        <v>36</v>
-      </c>
-      <c r="AK9" s="14">
-        <v>37</v>
-      </c>
-      <c r="AL9" s="14">
-        <v>38</v>
-      </c>
-      <c r="AM9" s="14">
-        <v>39</v>
-      </c>
-      <c r="AN9" s="14">
-        <v>40</v>
-      </c>
-      <c r="AO9" s="14">
-        <v>41</v>
-      </c>
-      <c r="AP9" s="14">
-        <v>42</v>
-      </c>
-      <c r="AQ9" s="14">
-        <v>43</v>
+      <c r="B10" s="28"/>
+      <c r="C10" s="16">
+        <f>SUM(C9:C9)</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" ref="D10:F10" si="0">SUM(D9:D9)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <f t="shared" ref="G10:AU10" si="1">SUM(G9:G9)</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" ref="K10" si="2">SUM(K9:K9)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="16">
+        <f t="shared" ref="R10" si="3">SUM(R9:R9)</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="16">
+        <f>SUM(T9:T9)</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="16">
+        <f t="shared" ref="U10" si="4">SUM(U9:U9)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="16">
+        <f t="shared" ref="Y10:Z10" si="5">SUM(Y9:Y9)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="16">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="16">
+        <f>SUM(AA9:AA9)</f>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="16">
+        <f t="shared" ref="AC10" si="6">SUM(AC9:AC9)</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="16">
+        <f t="shared" ref="AE10" si="7">SUM(AE9:AE9)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="16">
+        <f t="shared" ref="AG10" si="8">SUM(AG9:AG9)</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="16">
+        <f>SUM(AN9:AN9)</f>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="16">
+        <f>SUM(AO9:AO9)</f>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="16">
+        <f>SUM(AP9:AP9)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="16">
+        <f>SUM(AQ9:AQ9)</f>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="16">
+        <f>SUM(AR9:AR9)</f>
+        <v>0</v>
+      </c>
+      <c r="AS10" s="16">
+        <f t="shared" ref="AS10" si="9">SUM(AS9:AS9)</f>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="16">
+        <f t="shared" ref="AT10" si="10">SUM(AT9:AT9)</f>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="U10" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="V10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W10" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="X10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z10" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA10" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB10" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AC10" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="AG10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH10" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI10" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK10" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM10" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN10" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ10" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="18">
-        <f>SUM(C10:C10)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="18">
-        <f t="shared" ref="D11:F11" si="0">SUM(D10:D10)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="18">
-        <f t="shared" ref="G11:AQ11" si="1">SUM(G10:G10)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="18">
-        <f>SUM(R10:R10)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="18">
-        <f t="shared" ref="S11" si="2">SUM(S10:S10)</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="18">
-        <f t="shared" ref="W11:X11" si="3">SUM(W10:W10)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="18">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="18">
-        <f>SUM(Y10:Y10)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="18">
-        <f t="shared" ref="AC11" si="4">SUM(AC10:AC10)</f>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AH11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AI11" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AJ11" s="18">
-        <f>SUM(AJ10:AJ10)</f>
-        <v>0</v>
-      </c>
-      <c r="AK11" s="18">
-        <f>SUM(AK10:AK10)</f>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="18">
-        <f>SUM(AL10:AL10)</f>
-        <v>0</v>
-      </c>
-      <c r="AM11" s="18">
-        <f>SUM(AM10:AM10)</f>
-        <v>0</v>
-      </c>
-      <c r="AN11" s="18">
-        <f>SUM(AN10:AN10)</f>
-        <v>0</v>
-      </c>
-      <c r="AO11" s="18">
-        <f t="shared" ref="AO11" si="5">SUM(AO10:AO10)</f>
-        <v>0</v>
-      </c>
-      <c r="AP11" s="18">
-        <f t="shared" ref="AP11" si="6">SUM(AP10:AP10)</f>
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="AI14" s="12" t="s">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="AM13" s="12" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A11:B11"/>
+  <mergeCells count="16">
+    <mergeCell ref="AN7:AU7"/>
+    <mergeCell ref="AB7:AI7"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H3:Q3"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:AA7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="AJ7:AQ7"/>
-    <mergeCell ref="Z7:AE7"/>
-    <mergeCell ref="AF7:AF8"/>
-    <mergeCell ref="H2:P2"/>
-    <mergeCell ref="H3:P3"/>
-    <mergeCell ref="AG7:AI7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:Y7"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -321,6 +321,24 @@
   </si>
   <si>
     <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>Chi phí xét nghiệm</t>
+  </si>
+  <si>
+    <t>Chi phí CĐHA</t>
+  </si>
+  <si>
+    <t>Hao phí khoa</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHIPHIXN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].CHIPHICDHA</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].HAOPHIKHOA</t>
   </si>
 </sst>
 </file>
@@ -407,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -513,12 +531,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -595,47 +633,53 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -924,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU13"/>
+  <dimension ref="A1:AX13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C2"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,38 +1003,40 @@
     <col min="42" max="45" width="19" style="24" customWidth="1"/>
     <col min="46" max="46" width="14.42578125" style="18" customWidth="1"/>
     <col min="47" max="47" width="14.42578125" style="12" customWidth="1"/>
-    <col min="48" max="16384" width="9.140625" style="1"/>
+    <col min="48" max="48" width="18.140625" style="25" customWidth="1"/>
+    <col min="49" max="50" width="14.42578125" style="25" hidden="1" customWidth="1"/>
+    <col min="51" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
     </row>
-    <row r="2" spans="1:47" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:50" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
       <c r="R2" s="26"/>
       <c r="S2" s="12"/>
       <c r="T2" s="18"/>
@@ -1021,101 +1067,107 @@
       <c r="AS2" s="24"/>
       <c r="AT2" s="18"/>
       <c r="AU2" s="12"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="25"/>
+      <c r="AX2" s="25"/>
     </row>
-    <row r="3" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="39" t="s">
+    <row r="3" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
       <c r="R3" s="27"/>
     </row>
-    <row r="4" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:47" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="29" t="s">
+    <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:50" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="29" t="s">
+      <c r="F7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="34" t="s">
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="29"/>
+      <c r="X7" s="29"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="36" t="s">
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AK7" s="31" t="s">
+      <c r="AK7" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="31" t="s">
+      <c r="AL7" s="29"/>
+      <c r="AM7" s="30"/>
+      <c r="AN7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="32"/>
-      <c r="AR7" s="32"/>
-      <c r="AS7" s="32"/>
-      <c r="AT7" s="32"/>
-      <c r="AU7" s="33"/>
+      <c r="AO7" s="43"/>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="43"/>
+      <c r="AX7" s="43"/>
     </row>
-    <row r="8" spans="1:47" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+    <row r="8" spans="1:50" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="19" t="s">
         <v>11</v>
       </c>
@@ -1203,7 +1255,7 @@
       <c r="AI8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AJ8" s="37"/>
+      <c r="AJ8" s="34"/>
       <c r="AK8" s="19" t="s">
         <v>60</v>
       </c>
@@ -1237,8 +1289,17 @@
       <c r="AU8" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="AV8" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AX8" s="8" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
@@ -1380,12 +1441,21 @@
       <c r="AU9" s="11" t="s">
         <v>48</v>
       </c>
+      <c r="AV9" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX9" s="11" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:50" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="16">
         <f>SUM(C9:C9)</f>
         <v>0</v>
@@ -1559,40 +1629,52 @@
         <v>0</v>
       </c>
       <c r="AT10" s="16">
-        <f t="shared" ref="AT10" si="10">SUM(AT9:AT9)</f>
+        <f t="shared" ref="AT10:AW10" si="10">SUM(AT9:AT9)</f>
         <v>0</v>
       </c>
       <c r="AU10" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="AV10" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AW10" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="16">
+        <f t="shared" ref="AX10" si="11">SUM(AX9:AX9)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="AM13" s="12" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="AN7:AU7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:AA7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="AB7:AI7"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="H2:Q2"/>
     <mergeCell ref="H3:Q3"/>
     <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:AA7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="AN7:AX7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
@@ -425,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -531,32 +531,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -633,6 +613,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -642,6 +631,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -660,25 +655,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -970,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AW14" sqref="AW14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,39 +981,39 @@
     <col min="46" max="46" width="14.42578125" style="18" customWidth="1"/>
     <col min="47" max="47" width="14.42578125" style="12" customWidth="1"/>
     <col min="48" max="48" width="18.140625" style="25" customWidth="1"/>
-    <col min="49" max="50" width="14.42578125" style="25" hidden="1" customWidth="1"/>
+    <col min="49" max="50" width="14.42578125" style="25" customWidth="1"/>
     <col min="51" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:50" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
       <c r="R2" s="26"/>
       <c r="S2" s="12"/>
       <c r="T2" s="18"/>
@@ -1072,102 +1049,102 @@
       <c r="AX2" s="25"/>
     </row>
     <row r="3" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
       <c r="R3" s="27"/>
     </row>
     <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:50" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="29"/>
-      <c r="Z7" s="29"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="31" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="33" t="s">
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="37"/>
+      <c r="AE7" s="37"/>
+      <c r="AF7" s="37"/>
+      <c r="AG7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AK7" s="28" t="s">
+      <c r="AK7" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="AL7" s="29"/>
-      <c r="AM7" s="30"/>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="33"/>
       <c r="AN7" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AO7" s="43"/>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="43"/>
-      <c r="AS7" s="43"/>
-      <c r="AT7" s="43"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="43"/>
-      <c r="AX7" s="43"/>
+      <c r="AO7" s="42"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="42"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="42"/>
     </row>
     <row r="8" spans="1:50" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="19" t="s">
         <v>11</v>
       </c>
@@ -1255,7 +1232,7 @@
       <c r="AI8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AJ8" s="34"/>
+      <c r="AJ8" s="39"/>
       <c r="AK8" s="19" t="s">
         <v>60</v>
       </c>
@@ -1452,10 +1429,10 @@
       </c>
     </row>
     <row r="10" spans="1:50" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="41"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="16">
         <f>SUM(C9:C9)</f>
         <v>0</v>
@@ -1656,22 +1633,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="AN7:AX7"/>
+    <mergeCell ref="AB7:AI7"/>
+    <mergeCell ref="AJ7:AJ8"/>
+    <mergeCell ref="H2:Q2"/>
+    <mergeCell ref="H3:Q3"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:AA7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:AA7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="AB7:AI7"/>
-    <mergeCell ref="AJ7:AJ8"/>
-    <mergeCell ref="H2:Q2"/>
-    <mergeCell ref="H3:Q3"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="AN7:AX7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
@@ -188,21 +188,6 @@
     <t>&amp;=[DATA1].TONG_TIEN</t>
   </si>
   <si>
-    <t>SL BHYT</t>
-  </si>
-  <si>
-    <t>SL viện phí</t>
-  </si>
-  <si>
-    <t>Tổng cộng</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].SOLUONG_BH</t>
-  </si>
-  <si>
-    <t>&amp;=[DATA1].SOLUONG_VP</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].SOLUONG</t>
   </si>
   <si>
@@ -339,6 +324,21 @@
   </si>
   <si>
     <t>&amp;=[DATA1].HAOPHIKHOA</t>
+  </si>
+  <si>
+    <t>Số lượt BH</t>
+  </si>
+  <si>
+    <t>Số lượt VP</t>
+  </si>
+  <si>
+    <t>Số lượng</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SOLUOT_BH</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SOLUOT_VP</t>
   </si>
 </sst>
 </file>
@@ -613,50 +613,50 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -947,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="AW14" sqref="AW14"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,34 +986,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="A1" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="2" spans="1:50" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="A2" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
       <c r="R2" s="26"/>
       <c r="S2" s="12"/>
       <c r="T2" s="18"/>
@@ -1049,102 +1049,102 @@
       <c r="AX2" s="25"/>
     </row>
     <row r="3" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
       <c r="R3" s="27"/>
     </row>
     <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:50" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="29" t="s">
+      <c r="A7" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="36" t="s">
+      <c r="D7" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36"/>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="36"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="37"/>
-      <c r="AE7" s="37"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="38" t="s">
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="30"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="30"/>
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="30"/>
+      <c r="AJ7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AK7" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="42" t="s">
+      <c r="AK7" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AO7" s="42"/>
-      <c r="AP7" s="42"/>
-      <c r="AQ7" s="42"/>
-      <c r="AR7" s="42"/>
-      <c r="AS7" s="42"/>
-      <c r="AT7" s="42"/>
-      <c r="AU7" s="42"/>
-      <c r="AV7" s="42"/>
-      <c r="AW7" s="42"/>
-      <c r="AX7" s="42"/>
+      <c r="AO7" s="28"/>
+      <c r="AP7" s="28"/>
+      <c r="AQ7" s="28"/>
+      <c r="AR7" s="28"/>
+      <c r="AS7" s="28"/>
+      <c r="AT7" s="28"/>
+      <c r="AU7" s="28"/>
+      <c r="AV7" s="28"/>
+      <c r="AW7" s="28"/>
+      <c r="AX7" s="28"/>
     </row>
     <row r="8" spans="1:50" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="19" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L8" s="19" t="s">
         <v>15</v>
@@ -1179,16 +1179,16 @@
         <v>20</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="S8" s="19" t="s">
         <v>21</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="U8" s="19" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="V8" s="19" t="s">
         <v>22</v>
@@ -1200,31 +1200,31 @@
         <v>24</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AF8" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="AG8" s="8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AH8" s="8" t="s">
         <v>26</v>
@@ -1232,33 +1232,33 @@
       <c r="AI8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AJ8" s="39"/>
+      <c r="AJ8" s="32"/>
       <c r="AK8" s="19" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL8" s="19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="AM8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="AN8" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="AO8" s="8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="AP8" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="AQ8" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AR8" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AS8" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AT8" s="8" t="s">
         <v>29</v>
@@ -1267,13 +1267,13 @@
         <v>30</v>
       </c>
       <c r="AV8" s="8" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AW8" s="8" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AX8" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1287,13 +1287,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>32</v>
@@ -1308,7 +1308,7 @@
         <v>35</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>36</v>
@@ -1329,16 +1329,16 @@
         <v>41</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="S9" s="11" t="s">
         <v>42</v>
       </c>
       <c r="T9" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="U9" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V9" s="11" t="s">
         <v>43</v>
@@ -1350,31 +1350,31 @@
         <v>45</v>
       </c>
       <c r="Y9" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="Z9" s="11" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA9" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AB9" s="11" t="s">
         <v>50</v>
       </c>
       <c r="AC9" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AD9" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF9" s="11" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AG9" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AH9" s="11" t="s">
         <v>51</v>
@@ -1386,28 +1386,28 @@
         <v>49</v>
       </c>
       <c r="AK9" s="11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="AL9" s="11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="AM9" s="15" t="s">
         <v>53</v>
       </c>
       <c r="AN9" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="AO9" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AP9" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AQ9" s="11" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AR9" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AS9" s="11" t="s">
         <v>47</v>
@@ -1419,20 +1419,20 @@
         <v>48</v>
       </c>
       <c r="AV9" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AW9" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AX9" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="16">
         <f>SUM(C9:C9)</f>
         <v>0</v>
@@ -1633,22 +1633,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:AA7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="AN7:AX7"/>
     <mergeCell ref="AB7:AI7"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="H2:Q2"/>
     <mergeCell ref="H3:Q3"/>
     <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:AA7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>

--- a/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
+++ b/MedicalLink/Templates/BC_TongHopDoanhThuTheoKhoa_01.xlsx
@@ -107,18 +107,12 @@
     <t>VTYT thay thế</t>
   </si>
   <si>
-    <t>Cận lâm sàng</t>
-  </si>
-  <si>
     <t>Chi phí</t>
   </si>
   <si>
     <t>Hao phí ngày giường, CK</t>
   </si>
   <si>
-    <t>Chi phí khác</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].SOLUOT</t>
   </si>
   <si>
@@ -209,24 +203,12 @@
     <t>Doanh thu tại khoa</t>
   </si>
   <si>
-    <t>Gây mê_Chi phí thuốc trong gói</t>
-  </si>
-  <si>
-    <t>Gây mê_Chi phí vật tư trong gói</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].GMHT_MONEY_HPDKPTTT_THUOC</t>
   </si>
   <si>
     <t>&amp;=[DATA1].GMHT_MONEY_HPDKPTTT_VATTU</t>
   </si>
   <si>
-    <t>Thuốc trong gói PTTT</t>
-  </si>
-  <si>
-    <t>Vật tư trong gói PTTT</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].GMHT_MONEY_DKPTTT_THUOC</t>
   </si>
   <si>
@@ -263,18 +245,6 @@
     <t>&amp;=[DATA1].GMHT_MONEY_MAU</t>
   </si>
   <si>
-    <t>Gây mê_Hao phí PTTT ngoài gói</t>
-  </si>
-  <si>
-    <t>Khoa khác_Chi phí thuốc trong gói</t>
-  </si>
-  <si>
-    <t>Khoa khác_Chi phí vật tư trong gói</t>
-  </si>
-  <si>
-    <t>Khoa khác_Hao phí PTTT ngoài gói</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].MONEY_HPDKPTTT_THUOC</t>
   </si>
   <si>
@@ -339,6 +309,36 @@
   </si>
   <si>
     <t>&amp;=[DATA1].SOLUOT_VP</t>
+  </si>
+  <si>
+    <t>Thuốc TT riêng trong gói PTTT</t>
+  </si>
+  <si>
+    <t>Vật tư TT riêng trong gói PTTT</t>
+  </si>
+  <si>
+    <t>Gây mê_Chi phí vật tư TT riêng trong gói</t>
+  </si>
+  <si>
+    <t>Gây mê_Chi phí thuốc TT riêng trong gói</t>
+  </si>
+  <si>
+    <t>Gây mê_Hao phí khác</t>
+  </si>
+  <si>
+    <t>Khoa khác_Hao phí khác</t>
+  </si>
+  <si>
+    <t>Khoa khác_Chi phí vật tư TT riêng trong gói</t>
+  </si>
+  <si>
+    <t>Khoa khác_Chi phí thuốc TT riêng trong gói</t>
+  </si>
+  <si>
+    <t>Chi phí khác (đầu vào, máy móc…)</t>
+  </si>
+  <si>
+    <t>DV khác</t>
   </si>
 </sst>
 </file>
@@ -349,7 +349,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +389,12 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -536,7 +542,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -613,6 +619,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -634,29 +664,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -945,10 +957,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX13"/>
+  <dimension ref="A1:AX14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="AU8" sqref="AU8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,34 +998,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
+      <c r="A1" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
     </row>
     <row r="2" spans="1:50" s="4" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
+      <c r="A2" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="12"/>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
       <c r="R2" s="26"/>
       <c r="S2" s="12"/>
       <c r="T2" s="18"/>
@@ -1049,102 +1061,102 @@
       <c r="AX2" s="25"/>
     </row>
     <row r="3" spans="1:50" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
       <c r="R3" s="27"/>
     </row>
     <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:50" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="38" t="s">
+      <c r="A7" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="29" t="s">
+      <c r="D7" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="30"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="30"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="31" t="s">
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AK7" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="37"/>
-      <c r="AN7" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AO7" s="28"/>
-      <c r="AP7" s="28"/>
-      <c r="AQ7" s="28"/>
-      <c r="AR7" s="28"/>
-      <c r="AS7" s="28"/>
-      <c r="AT7" s="28"/>
-      <c r="AU7" s="28"/>
-      <c r="AV7" s="28"/>
-      <c r="AW7" s="28"/>
-      <c r="AX7" s="28"/>
+      <c r="AK7" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL7" s="32"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="36"/>
     </row>
-    <row r="8" spans="1:50" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
+    <row r="8" spans="1:50" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
       <c r="G8" s="19" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1170,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="L8" s="19" t="s">
         <v>15</v>
@@ -1179,16 +1191,16 @@
         <v>20</v>
       </c>
       <c r="R8" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="S8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="S8" s="44" t="s">
         <v>21</v>
       </c>
       <c r="T8" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="U8" s="19" t="s">
-        <v>66</v>
+        <v>95</v>
+      </c>
+      <c r="U8" s="44" t="s">
+        <v>96</v>
       </c>
       <c r="V8" s="19" t="s">
         <v>22</v>
@@ -1200,80 +1212,80 @@
         <v>24</v>
       </c>
       <c r="Y8" s="19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Z8" s="19" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AA8" s="19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AB8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="AC8" s="8" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AF8" s="8" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="AG8" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AH8" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH8" s="43" t="s">
         <v>26</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AJ8" s="32"/>
+        <v>104</v>
+      </c>
+      <c r="AJ8" s="40"/>
       <c r="AK8" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AL8" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AM8" s="14" t="s">
         <v>6</v>
       </c>
       <c r="AN8" s="8" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="AO8" s="8" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="AP8" s="8" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AQ8" s="8" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AR8" s="8" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS8" s="8" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="AT8" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU8" s="8" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="AV8" s="8" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AW8" s="8" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AX8" s="8" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:50" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1284,155 +1296,155 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="I9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="K9" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="O9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="P9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O9" s="11" t="s">
+      <c r="Q9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="11" t="s">
+      <c r="R9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S9" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="11" t="s">
+      <c r="T9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="R9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="S9" s="11" t="s">
+      <c r="W9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="11" t="s">
+      <c r="X9" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z9" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="U9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="V9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="W9" s="11" t="s">
+      <c r="AA9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ9" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL9" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="AN9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AQ9" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT9" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X9" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y9" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z9" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC9" s="11" t="s">
+      <c r="AU9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="AW9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX9" s="11" t="s">
         <v>89</v>
-      </c>
-      <c r="AD9" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AE9" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF9" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AG9" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AI9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ9" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="AK9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN9" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP9" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ9" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="AS9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT9" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV9" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AW9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX9" s="11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:50" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="42"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="16">
         <f>SUM(C9:C9)</f>
         <v>0</v>
@@ -1631,24 +1643,71 @@
         <v>3</v>
       </c>
     </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="5"/>
+      <c r="AW14" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:AA7"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
     <mergeCell ref="AN7:AX7"/>
     <mergeCell ref="AB7:AI7"/>
     <mergeCell ref="AJ7:AJ8"/>
     <mergeCell ref="H2:Q2"/>
     <mergeCell ref="H3:Q3"/>
     <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:AA7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
